--- a/assignment72/HeatForOMP/Task_4_new/Task4.xlsx
+++ b/assignment72/HeatForOMP/Task_4_new/Task4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment72\HeatForOMP\Task_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment72\HeatForOMP\Task_4_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CEF2F3-2B43-4B06-BFBF-13A623BF67F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4EF14-40EA-41B1-8FF0-8040A8A0F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8A7D55B9-0EE1-49B5-95D0-033DB3A3E25E}"/>
   </bookViews>
@@ -153,10 +153,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -450,13 +450,13 @@
                   <c:v>13.021683181728195</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.48799309265555</c:v>
+                  <c:v>12.845542661554749</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.5327141109175626</c:v>
+                  <c:v>13.285813001647798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4796509540111558</c:v>
+                  <c:v>12.907766990291261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,13 +690,13 @@
                   <c:v>12.540615956377373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.652934016892267</c:v>
+                  <c:v>12.280029591094037</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0212408881126755</c:v>
+                  <c:v>12.628248545976588</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.8684376491158998</c:v>
+                  <c:v>12.503213344186216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,13 +930,13 @@
                   <c:v>12.224451415612432</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.200879354876871</c:v>
+                  <c:v>11.911310440406531</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.8319374675690305</c:v>
+                  <c:v>12.168442331213548</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.6737601349383873</c:v>
+                  <c:v>12.072299216530887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,13 +1170,13 @@
                   <c:v>12.238958533157859</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.093158700946629</c:v>
+                  <c:v>11.943377847433094</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.6545354763788964</c:v>
+                  <c:v>11.967115146062516</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.644874739055469</c:v>
+                  <c:v>12.068255613505958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,7 +2274,7 @@
   <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,98 +2283,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="7">
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6">
         <v>3</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6">
         <v>4</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6">
         <v>5</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6">
         <v>6</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6">
         <v>7</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6">
         <v>8</v>
       </c>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7">
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6">
         <v>9</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -2524,13 +2524,13 @@
         <v>9.5973000000000003E-2</v>
       </c>
       <c r="Z4">
-        <v>9.2655000000000001E-2</v>
+        <v>9.7289E-2</v>
       </c>
       <c r="AA4">
-        <v>0.165907</v>
+        <v>9.4064999999999996E-2</v>
       </c>
       <c r="AB4">
-        <v>0.16708400000000001</v>
+        <v>9.6820000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -2598,13 +2598,13 @@
         <v>0.164135</v>
       </c>
       <c r="Z5">
-        <v>0.16267799999999999</v>
+        <v>0.16761799999999999</v>
       </c>
       <c r="AA5">
-        <v>0.293161</v>
+        <v>0.162996</v>
       </c>
       <c r="AB5">
-        <v>0.29968299999999998</v>
+        <v>0.16462599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -2672,13 +2672,13 @@
         <v>0.253106</v>
       </c>
       <c r="Z6">
-        <v>0.25359500000000001</v>
+        <v>0.25975999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.45288499999999998</v>
+        <v>0.25427100000000002</v>
       </c>
       <c r="AB6">
-        <v>0.463619</v>
+        <v>0.25629600000000002</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -2746,13 +2746,13 @@
         <v>0.35864800000000002</v>
       </c>
       <c r="Z7">
-        <v>0.36297200000000002</v>
+        <v>0.36752400000000002</v>
       </c>
       <c r="AA7">
-        <v>0.65962200000000004</v>
+        <v>0.36679499999999998</v>
       </c>
       <c r="AB7">
-        <v>0.66058099999999997</v>
+        <v>0.36372100000000002</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -2762,99 +2762,99 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
         <v>4</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7">
         <v>5</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6">
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7">
         <v>6</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6">
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7">
         <v>7</v>
       </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6">
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7">
         <v>8</v>
       </c>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6">
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7">
         <v>9</v>
       </c>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6" t="s">
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6" t="s">
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6" t="s">
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3042,15 +3042,15 @@
       </c>
       <c r="Z16" s="5">
         <f t="shared" si="0"/>
-        <v>13.48799309265555</v>
+        <v>12.845542661554749</v>
       </c>
       <c r="AA16" s="5">
         <f t="shared" si="0"/>
-        <v>7.5327141109175626</v>
+        <v>13.285813001647798</v>
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="0"/>
-        <v>7.4796509540111558</v>
+        <v>12.907766990291261</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -3155,15 +3155,15 @@
       </c>
       <c r="Z17" s="5">
         <f t="shared" si="0"/>
-        <v>12.652934016892267</v>
+        <v>12.280029591094037</v>
       </c>
       <c r="AA17" s="5">
         <f t="shared" si="0"/>
-        <v>7.0212408881126755</v>
+        <v>12.628248545976588</v>
       </c>
       <c r="AB17" s="5">
         <f t="shared" si="0"/>
-        <v>6.8684376491158998</v>
+        <v>12.503213344186216</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3268,15 +3268,15 @@
       </c>
       <c r="Z18" s="5">
         <f t="shared" si="0"/>
-        <v>12.200879354876871</v>
+        <v>11.911310440406531</v>
       </c>
       <c r="AA18" s="5">
         <f t="shared" si="0"/>
-        <v>6.8319374675690305</v>
+        <v>12.168442331213548</v>
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="0"/>
-        <v>6.6737601349383873</v>
+        <v>12.072299216530887</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -3381,15 +3381,15 @@
       </c>
       <c r="Z19" s="5">
         <f t="shared" si="0"/>
-        <v>12.093158700946629</v>
+        <v>11.943377847433094</v>
       </c>
       <c r="AA19" s="5">
         <f t="shared" si="0"/>
-        <v>6.6545354763788964</v>
+        <v>11.967115146062516</v>
       </c>
       <c r="AB19" s="5">
         <f t="shared" si="0"/>
-        <v>6.644874739055469</v>
+        <v>12.068255613505958</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -3721,13 +3721,13 @@
         <v>13.021683181728195</v>
       </c>
       <c r="Z36" s="3">
-        <v>13.48799309265555</v>
+        <v>12.845542661554749</v>
       </c>
       <c r="AA36" s="3">
-        <v>7.5327141109175626</v>
+        <v>13.285813001647798</v>
       </c>
       <c r="AB36" s="3">
-        <v>7.4796509540111558</v>
+        <v>12.907766990291261</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -3807,13 +3807,13 @@
         <v>12.540615956377373</v>
       </c>
       <c r="Z37" s="3">
-        <v>12.652934016892267</v>
+        <v>12.280029591094037</v>
       </c>
       <c r="AA37" s="3">
-        <v>7.0212408881126755</v>
+        <v>12.628248545976588</v>
       </c>
       <c r="AB37" s="3">
-        <v>6.8684376491158998</v>
+        <v>12.503213344186216</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -3893,13 +3893,13 @@
         <v>12.224451415612432</v>
       </c>
       <c r="Z38" s="3">
-        <v>12.200879354876871</v>
+        <v>11.911310440406531</v>
       </c>
       <c r="AA38" s="3">
-        <v>6.8319374675690305</v>
+        <v>12.168442331213548</v>
       </c>
       <c r="AB38" s="3">
-        <v>6.6737601349383873</v>
+        <v>12.072299216530887</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -3979,37 +3979,17 @@
         <v>12.238958533157859</v>
       </c>
       <c r="Z39" s="3">
-        <v>12.093158700946629</v>
+        <v>11.943377847433094</v>
       </c>
       <c r="AA39" s="3">
-        <v>6.6545354763788964</v>
+        <v>11.967115146062516</v>
       </c>
       <c r="AB39" s="3">
-        <v>6.644874739055469</v>
+        <v>12.068255613505958</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="B2:D2"/>
@@ -4026,6 +4006,26 @@
     <mergeCell ref="W14:Y14"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
